--- a/Analysis/Data/Data for Tables/FFG results.xlsx
+++ b/Analysis/Data/Data for Tables/FFG results.xlsx
@@ -5,14 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Cedar's Undergrad Thesis/Analysis/Data/Data for Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Benthic" sheetId="1" r:id="rId1"/>
+    <sheet name="Site diets" sheetId="3" r:id="rId2"/>
+    <sheet name="TopDiet" sheetId="4" r:id="rId3"/>
+    <sheet name="Diet" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>FFG</t>
   </si>
@@ -57,6 +60,81 @@
   </si>
   <si>
     <t>All Bugs</t>
+  </si>
+  <si>
+    <t>tval</t>
+  </si>
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>LOON</t>
+  </si>
+  <si>
+    <t>CHUCK</t>
+  </si>
+  <si>
+    <t>MCTE</t>
+  </si>
+  <si>
+    <t>W-100</t>
+  </si>
+  <si>
+    <t>W-113</t>
+  </si>
+  <si>
+    <t>Sci</t>
+  </si>
+  <si>
+    <t>Terr.</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Chironomidae</t>
+  </si>
+  <si>
+    <t>Baetidae</t>
+  </si>
+  <si>
+    <t>Perlidae</t>
+  </si>
+  <si>
+    <t>Rhyacophilidae</t>
+  </si>
+  <si>
+    <t>Brachycentridae</t>
+  </si>
+  <si>
+    <t>Ostrocod</t>
+  </si>
+  <si>
+    <t>Dixidae</t>
+  </si>
+  <si>
+    <t>Elmidae</t>
+  </si>
+  <si>
+    <t>Ephemerellidae</t>
+  </si>
+  <si>
+    <t>Heptageniidae</t>
+  </si>
+  <si>
+    <t>Hydropsychidae</t>
+  </si>
+  <si>
+    <t>Simuliidae</t>
+  </si>
+  <si>
+    <t>Tipulidae</t>
+  </si>
+  <si>
+    <t>Juga</t>
+  </si>
+  <si>
+    <t>Leptophlebiidae</t>
   </si>
 </sst>
 </file>
@@ -91,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,15 +177,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,100 +481,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1.55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <v>0.06</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.32</v>
+      </c>
+      <c r="C3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.33</v>
+      </c>
+      <c r="E3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.18</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.13</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.04</v>
+      </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.36</v>
+      </c>
+      <c r="D8">
+        <v>0.33</v>
+      </c>
+      <c r="E8">
+        <v>0.44</v>
+      </c>
+      <c r="F8">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.193</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.67</v>
+      </c>
+      <c r="C4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.122</v>
+      </c>
+      <c r="F5">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.249</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.125</v>
+      </c>
+      <c r="D7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.153</v>
+      </c>
+      <c r="D14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.123</v>
+      </c>
+      <c r="F14">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.15</v>
+      </c>
+      <c r="F16">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F16">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>7.1161710000000003E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.94502244999999996</v>
+      <c r="B2">
+        <v>0.27</v>
+      </c>
+      <c r="C2">
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.71</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.09</v>
+      </c>
+      <c r="C4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.51615186000000002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.62249306999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B5">
+        <v>1.04</v>
+      </c>
+      <c r="C5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>-1.54654398</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.16243792000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.59784682</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.56661331999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6">
+        <v>-0.52</v>
+      </c>
+      <c r="C6">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.85529787999999995</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.4216123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2.1321982199999998</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.5678089999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.43</v>
+      <c r="B7">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
